--- a/biology/Zoologie/Cryolophosaurus/Cryolophosaurus.xlsx
+++ b/biology/Zoologie/Cryolophosaurus/Cryolophosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryolophosaurus ellioti
 Cryolophosaurus est un genre éteint de dinosaures carnivores découvert en Antarctique en 1991 et nommé en 1994.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryolophosaurus signifie « lézard à crête de glace », du grec cryos (glace), lophos, (crête) et saurus (lézard).
 </t>
@@ -543,7 +557,9 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'holotype, et seule espèce, est nommé Cryolophosaurus ellioti, découvert dans la formation de Hanson, est basé sur un squelette partiel (os du bassin, fémur, tibia, métatarses, vertèbres, etc.), dont il manque principalement la partie antérieure.
 </t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se caractérise par la présence d'une crête sur le crâne, recourbée vers l'arrière, et a été surnommé Elvisaurus par les paléontologues, parce que cette crête leur rappelait la coiffure du chanteur Elvis Presley . L'animal adulte mesurait 6 mètres de long et pesait entre 2 et 4 tonnes. Cryolophosaurus a vécu durant le Jurassique inférieur entre 189 et 183 millions d’années avant notre ère.
 </t>
@@ -605,7 +623,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Appartenant aux dinosaures théropodes (groupe comprenant surtout des dinosaures carnivores), il est classé par certains scientifiques dans la famille des sinraptoridés, dont la plupart des parents ont été identifiés en Asie.
 			Crâne de Cryolophosaurus ellioti.
@@ -637,7 +657,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Hammer &amp; Hickerson, 1994: « A crested theropod dinosaur from Antarctica. » Science (Washington D C), vol.264, n.5160, p. 828-830.</t>
         </is>
